--- a/spider _no_cookies/ptt.xlsx
+++ b/spider _no_cookies/ptt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,391 +453,340 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[花邊] Luke Kennard孩子出生</t>
+          <t>[公告] NBA 樂透開獎</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[花邊] 裁判:嘴綠使用令人髮指的褻瀆語言</t>
+          <t>[BOX ] Suns 124:111 Pelicans 數據</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[花邊] 勇士獲勝後 嘴綠比出晚安手勢迎接Curry</t>
+          <t>[情報] 書人最近三場對鵜鶘場均54分</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[花邊] 根據官方報告 Oubre最後進攻應吹防守犯規</t>
+          <t>[情報] NBA Standings (Apr. 02, 2024)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>沒有標題</t>
+          <t>[情報] 灰狼隊 晉級季後賽</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[BOX ] Suns 104:97 Nuggets 數據</t>
+          <t>[公告] NBA 板 開始舉辦樂透!</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>爆</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[公告] NBA 樂透開獎</t>
+          <t>[花邊] 庫班上播客談Luka與Kyrie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>爆</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[新聞] NBA／格林首節被趕出場柯瑞無奈 柯爾嘆不</t>
+          <t>[花邊] 打鵜鶘特別賣力 書人:很多家人在這邊</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[花邊] 記者問GG Jackson與LBJ交手感想</t>
+          <t>[花邊] Monty：我告訴Cunningham，總有一天他能</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[花邊] GG Jackson出生時 Lebron已在NBA打一年</t>
+          <t>[花邊] 77與KI 兩人分別在上下半場領跑得分第一</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[情報] NBA Standings (Mar. 28, 2024)</t>
+          <t>沒有標題</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[花邊] 被問會想花錢買票看誰 Shaq: 西門</t>
+          <t>[花邊] 史上合約收入最高而未入選明星賽選手</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[公告] NBA 板 開始舉辦樂透!</t>
+          <t>[新聞] NBA也爆比賽內鬨但沒走人　老鷹波格丹諾</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[花邊] KD今晚一人搧出的火鍋數量比金塊全隊還多</t>
+          <t>沒有標題</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[花邊]SGA可能於九月推出簽名鞋</t>
+          <t>[情報] 第24週 Power Rankings</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[花邊] Tari Eason：勇士，出來打球！</t>
+          <t>[情報] 溜馬慶祝新人Isaiah Wong首得分</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[情報] 斑馬成為第2個抄截+火鍋突破300的新人</t>
+          <t>[公告] 板規10.1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t>11/29</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[情報] MPJ:我弟弟愛籃球 我不覺得他會賭</t>
+          <t>[情報] NBA Schedule 2023-24 (03/30~)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[新聞] 勇士Green謾罵裁判又被趕出場 Curry：我</t>
+          <t>[情報] NBA Standings (Apr. 02, 2024)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[公告] 板規10.1</t>
+          <t>[公告] NBA 板 開始舉辦樂透!</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11/29</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>[公告] 置底賽程文章更動說明</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3/09</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>[情報] NBA Standings (Mar. 28, 2024)</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3/28</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>[公告] NBA 板 開始舉辦樂透!</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3/28</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
     </row>
